--- a/CTT_Administrador/wwwroot/resources/plantilla_matriculas_uniandes.xlsx
+++ b/CTT_Administrador/wwwroot/resources/plantilla_matriculas_uniandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcloz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20D5C1-02B7-4410-A13D-3611BA4958DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2810585A-1E30-47E7-AED0-8AC2447D80A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F30FAC4C-020B-45AA-83DC-2C3DCDA7CFEA}"/>
+    <workbookView xWindow="-23148" yWindow="-3792" windowWidth="23256" windowHeight="12456" xr2:uid="{F30FAC4C-020B-45AA-83DC-2C3DCDA7CFEA}"/>
   </bookViews>
   <sheets>
     <sheet name="CARGA MASIVA" sheetId="1" r:id="rId1"/>
@@ -306,13 +306,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,11 +705,12 @@
   <dimension ref="A2:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="7"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -713,18 +720,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -733,7 +740,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -742,7 +749,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -751,7 +758,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -760,7 +767,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -783,7 +790,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -792,7 +799,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -801,7 +808,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -810,7 +817,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -819,7 +826,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -828,7 +835,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -837,7 +844,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -846,7 +853,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -855,7 +862,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -864,7 +871,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -873,7 +880,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -882,7 +889,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -891,7 +898,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -900,7 +907,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -909,7 +916,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -918,7 +925,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -927,7 +934,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -936,7 +943,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -945,7 +952,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -954,7 +961,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -963,7 +970,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -972,7 +979,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -981,7 +988,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -990,7 +997,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -999,7 +1006,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1008,7 +1015,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1017,7 +1024,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1026,7 +1033,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1035,7 +1042,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1044,7 +1051,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1053,7 +1060,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1062,7 +1069,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1071,7 +1078,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1080,7 +1087,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1089,7 +1096,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1098,7 +1105,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1107,7 +1114,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1116,7 +1123,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1125,7 +1132,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1134,7 +1141,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1143,7 +1150,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1152,7 +1159,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1161,7 +1168,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1170,7 +1177,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1179,7 +1186,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1188,7 +1195,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1197,7 +1204,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1206,7 +1213,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1215,7 +1222,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1224,7 +1231,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1233,7 +1240,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1242,7 +1249,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1251,7 +1258,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1260,7 +1267,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1269,7 +1276,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="6"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1278,7 +1285,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1287,7 +1294,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="6"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1296,7 +1303,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="6"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1305,7 +1312,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1314,7 +1321,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1323,7 +1330,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1332,7 +1339,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="6"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1341,7 +1348,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1350,7 +1357,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1359,7 +1366,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="6"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1368,7 +1375,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="6"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1377,7 +1384,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="6"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1386,7 +1393,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1395,7 +1402,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1404,7 +1411,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="6"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1413,7 +1420,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="6"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1422,7 +1429,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="6"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1431,7 +1438,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1440,7 +1447,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="6"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1449,7 +1456,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1458,7 +1465,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="6"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1467,7 +1474,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1476,7 +1483,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1485,7 +1492,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="6"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1494,7 +1501,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -1503,7 +1510,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="6"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1512,7 +1519,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="6"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1521,7 +1528,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="6"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -1530,7 +1537,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="6"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -1539,7 +1546,7 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="6"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -1548,7 +1555,7 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="6"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -1557,7 +1564,7 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="6"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -1566,7 +1573,7 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="6"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -1575,7 +1582,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="6"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -1584,7 +1591,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="6"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -1593,7 +1600,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="6"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -1602,7 +1609,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="6"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -1611,7 +1618,7 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="6"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -1620,7 +1627,7 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="6"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -1629,7 +1636,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="6"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -1638,7 +1645,7 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="6"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -1647,7 +1654,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="A105" s="6"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -1656,7 +1663,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="6"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -1665,7 +1672,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="6"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -1674,7 +1681,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="6"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -1683,7 +1690,7 @@
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="6"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -1692,7 +1699,7 @@
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="6"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -1701,7 +1708,7 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="6"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -1710,7 +1717,7 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="6"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -1719,7 +1726,7 @@
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="6"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -1728,7 +1735,7 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="6"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -1737,7 +1744,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="6"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -1746,7 +1753,7 @@
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="6"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -1755,7 +1762,7 @@
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="6"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -1764,7 +1771,7 @@
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="6"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
